--- a/Admin_CBMS/files/import products.xlsx
+++ b/Admin_CBMS/files/import products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimi\source\repos\CBMS\Admin_CBMS\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE1807-0B7B-47FF-AA2B-196CC8E9D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBA4E1E-89EB-406D-AFF7-A0A671D5440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D20A8C6-D350-4D09-91F7-9CB57D0DB09E}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>222</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
